--- a/!documentation/Тест-Кейсы-ПоискDNS.xlsx
+++ b/!documentation/Тест-Кейсы-ПоискDNS.xlsx
@@ -134,16 +134,10 @@
     <t>Ввод и удаление строки запроса с помощью иконки-крестика  (без отправки запроса)</t>
   </si>
   <si>
-    <t xml:space="preserve">Test03CheckIconСlear </t>
-  </si>
-  <si>
     <t>Проверка истории поиска</t>
   </si>
   <si>
     <t>Проверка отображения истории поиска после предварительных запросов поиска</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test04СheckingSearchHistory </t>
   </si>
   <si>
     <r>
@@ -188,6 +182,12 @@
   </si>
   <si>
     <t>https://www.dns-shop.ru/</t>
+  </si>
+  <si>
+    <t>Test03CheckIconСlear.java</t>
+  </si>
+  <si>
+    <t>Test04СheckingSearchHistory.java</t>
   </si>
 </sst>
 </file>
@@ -384,33 +384,12 @@
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -439,9 +418,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -463,30 +439,54 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -772,7 +772,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,226 +784,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="A4" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="17">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="17">
         <v>2</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="17">
         <v>3</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>4</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
-        <v>4</v>
-      </c>
-      <c r="B9" s="26" t="s">
+      <c r="C9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>37</v>
+      <c r="D9" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1032,340 +1032,340 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+    </row>
+    <row r="6" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+    </row>
+    <row r="12" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="4" t="s">
+      <c r="C13" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="5" t="s">
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
         <v>3</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+    </row>
+    <row r="18" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+    <row r="19" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="7" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+    </row>
+    <row r="23" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
         <v>5</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-    </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
-        <v>2</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="B28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
         <v>6</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="B29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
         <v>7</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="31"/>
-    </row>
-    <row r="10" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
-        <v>3</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
-        <v>1</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
-        <v>3</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
-        <v>1</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
-        <v>2</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
-        <v>3</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
-        <v>4</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
-        <v>5</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
-        <v>6</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
-        <v>7</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/!documentation/Тест-Кейсы-ПоискDNS.xlsx
+++ b/!documentation/Тест-Кейсы-ПоискDNS.xlsx
@@ -125,9 +125,6 @@
     <t>Ввод и отправка строки запроса, получение результата, при котором ничего не найдено</t>
   </si>
   <si>
-    <t>Test02SuccessfulSearch.java</t>
-  </si>
-  <si>
     <t>Проверка работы иконки очищения строки</t>
   </si>
   <si>
@@ -187,7 +184,10 @@
     <t>Test03CheckIconСlear.java</t>
   </si>
   <si>
-    <t>Test04СheckingSearchHistory.java</t>
+    <t>Test04СheckSearchHistory.java</t>
+  </si>
+  <si>
+    <t>Test02NoSearchResults.java</t>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,14 +802,14 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -854,7 +854,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -862,13 +862,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>33</v>
-      </c>
       <c r="D8" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -876,13 +876,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="D9" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -1086,13 +1086,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -1148,13 +1148,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1265,10 +1265,10 @@
         <v>17</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">

--- a/!documentation/Тест-Кейсы-ПоискDNS.xlsx
+++ b/!documentation/Тест-Кейсы-ПоискDNS.xlsx
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/!documentation/Тест-Кейсы-ПоискDNS.xlsx
+++ b/!documentation/Тест-Кейсы-ПоискDNS.xlsx
@@ -772,7 +772,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
